--- a/UpdatedLocations.xlsx
+++ b/UpdatedLocations.xlsx
@@ -793,27 +793,27 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr"/>
@@ -912,27 +912,27 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 01::30PM-05::30PM</t>
+          <t>09:00AM-12:00PM, 01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr"/>
@@ -2010,32 +2010,32 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>10:00AM-11::30AM, 02:00PM-04:00PM</t>
+          <t>10:00AM-11:30AM, 02:00PM-04:00PM</t>
         </is>
       </c>
     </row>
@@ -2375,32 +2375,32 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>09::30AM-04:00PM</t>
+          <t>09:30AM-04:00PM</t>
         </is>
       </c>
     </row>
@@ -2502,32 +2502,32 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>09::30AM-04:00PM</t>
+          <t>09:30AM-04:00PM</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>09::30AM-03:00PM</t>
+          <t>09:30AM-03:00PM</t>
         </is>
       </c>
     </row>
@@ -4023,27 +4023,27 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr"/>
@@ -4142,27 +4142,27 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:00AM-11::30AM</t>
+          <t>11:00AM-11:30AM</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr"/>
@@ -4494,33 +4494,33 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr"/>
@@ -5082,22 +5082,22 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr"/>
@@ -5189,27 +5189,27 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr"/>
@@ -5304,27 +5304,27 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM, 12:00PM-12:00PM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM, 12:00PM-12:00PM</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM, 12:00PM-12:00PM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM, 12:00PM-12:00PM</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM, 12:00PM-12:00PM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM, 12:00PM-12:00PM</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM, 12:00PM-12:00PM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM, 12:00PM-12:00PM</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM, 12:00PM-12:00PM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM, 12:00PM-12:00PM</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr"/>
@@ -5423,27 +5423,27 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>09::30AM-09::45AM, 10:00AM-10::15AM, 10::30AM-10::45AM, 11:00AM-11::15AM, 11::30AM-11::45AM</t>
+          <t>09:30AM-09:45AM, 10:00AM-10:15AM, 10:30AM-10:45AM, 11:00AM-11:15AM, 11:30AM-11:45AM</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr"/>
@@ -5660,12 +5660,12 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>10:00AM-02:00PM, 04::30PM-06:00PM</t>
+          <t>10:00AM-02:00PM, 04:30PM-06:00PM</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>10:00AM-02:00PM, 04::30PM-06:00PM</t>
+          <t>10:00AM-02:00PM, 04:30PM-06:00PM</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5774,27 +5774,27 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr"/>
@@ -5893,27 +5893,27 @@
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr"/>
@@ -6136,27 +6136,27 @@
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>08:00AM-06::30PM</t>
+          <t>08:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>08:00AM-06::30PM</t>
+          <t>08:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>09::15AM-06:00PM</t>
+          <t>09:15AM-06:00PM</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>08:00AM-06::30PM</t>
+          <t>08:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>09::15AM-06::15PM</t>
+          <t>09:15AM-06:15PM</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>09::15AM-06::15PM</t>
+          <t>09:15AM-06:15PM</t>
         </is>
       </c>
     </row>
@@ -6715,32 +6715,32 @@
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>10::30AM-03::30PM</t>
+          <t>10:30AM-03:30PM</t>
         </is>
       </c>
     </row>
@@ -8241,27 +8241,27 @@
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr">
         <is>
-          <t>11:00AM-12:00PM, 01::10PM-05::30PM</t>
+          <t>11:00AM-12:00PM, 01:10PM-05:30PM</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>10::45AM-12::05PM, 01::15PM-05::35PM</t>
+          <t>10:45AM-12:05PM, 01:15PM-05:35PM</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>10::15AM-12::05PM, 01::15PM-05::05PM</t>
+          <t>10:15AM-12:05PM, 01:15PM-05:05PM</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>10::15AM-12::05PM, 01::15PM-05::35PM</t>
+          <t>10:15AM-12:05PM, 01:15PM-05:35PM</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr">
         <is>
-          <t>10::15AM-12::05PM, 01::15PM-03::45PM</t>
+          <t>10:15AM-12:05PM, 01:15PM-03:45PM</t>
         </is>
       </c>
       <c r="AC67" t="inlineStr"/>
@@ -9508,27 +9508,27 @@
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC78" t="inlineStr">
@@ -9746,27 +9746,27 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC80" t="inlineStr"/>
@@ -9865,27 +9865,27 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr"/>
@@ -9984,27 +9984,27 @@
       <c r="W82" t="inlineStr"/>
       <c r="X82" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC82" t="inlineStr"/>
@@ -10218,18 +10218,18 @@
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr"/>
@@ -10440,27 +10440,27 @@
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AC86" t="inlineStr"/>
@@ -10666,27 +10666,27 @@
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC88" t="inlineStr"/>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>10::30AM-01::45PM</t>
+          <t>10:30AM-01:45PM</t>
         </is>
       </c>
     </row>
@@ -11023,27 +11023,27 @@
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AC91" t="inlineStr">
@@ -11145,27 +11145,27 @@
       <c r="X92" t="inlineStr"/>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>09:00AM-02::15PM</t>
+          <t>09:00AM-02:15PM</t>
         </is>
       </c>
     </row>
@@ -11262,27 +11262,27 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>09:00AM-02::15PM</t>
+          <t>09:00AM-02:15PM</t>
         </is>
       </c>
     </row>
@@ -11379,27 +11379,27 @@
       <c r="X94" t="inlineStr"/>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>09:00AM-12::15PM, 01:00PM-04::15PM</t>
+          <t>09:00AM-12:15PM, 01:00PM-04:15PM</t>
         </is>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>09:00AM-02::15PM</t>
+          <t>09:00AM-02:15PM</t>
         </is>
       </c>
     </row>
@@ -11497,22 +11497,22 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -11612,27 +11612,27 @@
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="AC96" t="inlineStr"/>
@@ -11727,27 +11727,27 @@
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr">
         <is>
-          <t>07::30AM-12:00PM, 01:00PM-03:00PM</t>
+          <t>07:30AM-12:00PM, 01:00PM-03:00PM</t>
         </is>
       </c>
       <c r="AC97" t="inlineStr"/>
@@ -11844,7 +11844,7 @@
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr">
         <is>
-          <t>10:00AM-01::30PM, 02:00PM-05:00PM</t>
+          <t>10:00AM-01:30PM, 02:00PM-05:00PM</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>10:00AM-01::30PM, 02:00PM-05:00PM</t>
+          <t>10:00AM-01:30PM, 02:00PM-05:00PM</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
@@ -11864,7 +11864,7 @@
       </c>
       <c r="AB98" t="inlineStr">
         <is>
-          <t>10:00AM-01::30PM, 02:00PM-05:00PM</t>
+          <t>10:00AM-01:30PM, 02:00PM-05:00PM</t>
         </is>
       </c>
       <c r="AC98" t="inlineStr"/>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>09:00AM-03::15PM</t>
+          <t>09:00AM-03:15PM</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
@@ -12062,7 +12062,7 @@
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>09:00AM-01::30PM</t>
+          <t>09:00AM-01:30PM</t>
         </is>
       </c>
       <c r="AC100" t="inlineStr"/>
@@ -12276,32 +12276,32 @@
       <c r="W102" t="inlineStr"/>
       <c r="X102" t="inlineStr">
         <is>
-          <t>10::30AM-02:00PM</t>
+          <t>10:30AM-02:00PM</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>10::30AM-02:00PM</t>
+          <t>10:30AM-02:00PM</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>10::30AM-02:00PM</t>
+          <t>10:30AM-02:00PM</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>10::30AM-02:00PM</t>
+          <t>10:30AM-02:00PM</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr">
         <is>
-          <t>10::30AM-02:00PM</t>
+          <t>10:30AM-02:00PM</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>10::30AM-02:00PM</t>
+          <t>10:30AM-02:00PM</t>
         </is>
       </c>
     </row>
@@ -12422,7 +12422,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>09:00AM-12::30PM</t>
+          <t>09:00AM-12:30PM</t>
         </is>
       </c>
     </row>
@@ -12851,32 +12851,32 @@
       <c r="W107" t="inlineStr"/>
       <c r="X107" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -13091,27 +13091,27 @@
       <c r="W109" t="inlineStr"/>
       <c r="X109" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC109" t="inlineStr"/>
@@ -13212,32 +13212,32 @@
       <c r="W110" t="inlineStr"/>
       <c r="X110" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
-          <t>11:00AM-02::30PM</t>
+          <t>11:00AM-02:30PM</t>
         </is>
       </c>
     </row>
@@ -13456,27 +13456,27 @@
       <c r="W112" t="inlineStr"/>
       <c r="X112" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC112" t="inlineStr"/>
@@ -13571,22 +13571,22 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr">
         <is>
-          <t>08::30AM-11:00AM, 12:00PM-04:00PM</t>
+          <t>08:30AM-11:00AM, 12:00PM-04:00PM</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>08::30AM-11:00AM, 12:00PM-04:00PM</t>
+          <t>08:30AM-11:00AM, 12:00PM-04:00PM</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>08::30AM-11:00AM, 12:00PM-04:00PM</t>
+          <t>08:30AM-11:00AM, 12:00PM-04:00PM</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>08::30AM-11:00AM, 12:00PM-04:00PM</t>
+          <t>08:30AM-11:00AM, 12:00PM-04:00PM</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr"/>
@@ -13686,32 +13686,32 @@
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -13898,32 +13898,32 @@
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
-          <t>10:00AM-01::30PM</t>
+          <t>10:00AM-01:30PM</t>
         </is>
       </c>
     </row>
@@ -14023,32 +14023,32 @@
       <c r="W117" t="inlineStr"/>
       <c r="X117" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
-          <t>10:00AM-02::30PM</t>
+          <t>10:00AM-02:30PM</t>
         </is>
       </c>
     </row>
@@ -14143,22 +14143,22 @@
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>10::30AM-12:00PM</t>
+          <t>10:30AM-12:00PM</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>10::30AM-12:00PM</t>
+          <t>10:30AM-12:00PM</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>10::30AM-12:00PM</t>
+          <t>10:30AM-12:00PM</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
         <is>
-          <t>10::30AM-12:00PM</t>
+          <t>10:30AM-12:00PM</t>
         </is>
       </c>
       <c r="AC118" t="inlineStr"/>
@@ -14257,32 +14257,32 @@
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -14378,32 +14378,32 @@
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
-          <t>09::30AM-03:00PM</t>
+          <t>09:30AM-03:00PM</t>
         </is>
       </c>
     </row>
@@ -14495,32 +14495,32 @@
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -14724,7 +14724,7 @@
       </c>
       <c r="AC123" t="inlineStr">
         <is>
-          <t>10::30AM-02::30PM</t>
+          <t>10:30AM-02:30PM</t>
         </is>
       </c>
     </row>
@@ -14818,27 +14818,27 @@
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
       <c r="AC124" t="inlineStr"/>
@@ -14933,27 +14933,27 @@
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr"/>
@@ -15528,32 +15528,32 @@
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr">
         <is>
-          <t>12:00PM-01::30PM, 03::30PM-06::30PM</t>
+          <t>12:00PM-01:30PM, 03:30PM-06:30PM</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>12:00PM-01::30PM, 03::30PM-06::30PM</t>
+          <t>12:00PM-01:30PM, 03:30PM-06:30PM</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>12:00PM-01::30PM, 03::30PM-06::30PM</t>
+          <t>12:00PM-01:30PM, 03:30PM-06:30PM</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>12:00PM-01::30PM, 03::30PM-06::30PM</t>
+          <t>12:00PM-01:30PM, 03:30PM-06:30PM</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr">
         <is>
-          <t>12:00PM-01::30PM, 03::30PM-05::30PM</t>
+          <t>12:00PM-01:30PM, 03:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
-          <t>10::30AM-01:00PM</t>
+          <t>10:30AM-01:00PM</t>
         </is>
       </c>
     </row>
@@ -15647,27 +15647,27 @@
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC131" t="inlineStr"/>
@@ -15968,7 +15968,7 @@
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
@@ -15978,7 +15978,7 @@
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="AB134" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC134" t="inlineStr"/>
@@ -16087,27 +16087,27 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
       <c r="AC135" t="inlineStr"/>
@@ -17695,27 +17695,27 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC149" t="inlineStr">
@@ -17946,7 +17946,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>08:00AM-09::45AM</t>
+          <t>08:00AM-09:45AM</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
@@ -17961,7 +17961,7 @@
       </c>
       <c r="AB151" t="inlineStr">
         <is>
-          <t>08:00AM-01::45PM</t>
+          <t>08:00AM-01:45PM</t>
         </is>
       </c>
       <c r="AC151" t="inlineStr">
@@ -18320,7 +18320,7 @@
       </c>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>09::30AM-01:00PM</t>
+          <t>09:30AM-01:00PM</t>
         </is>
       </c>
       <c r="AC154" t="inlineStr"/>
@@ -18962,27 +18962,27 @@
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC160" t="inlineStr"/>
@@ -19081,27 +19081,27 @@
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC161" t="inlineStr"/>
@@ -19197,27 +19197,27 @@
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC162" t="inlineStr">
@@ -19321,27 +19321,27 @@
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>08::30AM-04::30PM</t>
+          <t>08:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC163" t="inlineStr">
@@ -19444,22 +19444,22 @@
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr"/>
@@ -19555,27 +19555,27 @@
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AC165" t="inlineStr"/>
@@ -19670,27 +19670,27 @@
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AC166" t="inlineStr"/>
@@ -19785,27 +19785,27 @@
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>09::30AM-04::50PM</t>
+          <t>09:30AM-04:50PM</t>
         </is>
       </c>
       <c r="AC167" t="inlineStr"/>
@@ -19902,7 +19902,7 @@
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr">
         <is>
-          <t>11::15AM-04:00PM</t>
+          <t>11:15AM-04:00PM</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
@@ -19917,12 +19917,12 @@
       </c>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>10::30AM-04:00PM</t>
+          <t>10:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>10::30AM-04:00PM</t>
+          <t>10:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AC168" t="inlineStr"/>
@@ -20019,27 +20019,27 @@
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr">
         <is>
-          <t>10:00AM-04::45PM</t>
+          <t>10:00AM-04:45PM</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>10:00AM-04::45PM</t>
+          <t>10:00AM-04:45PM</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>10:00AM-04::45PM</t>
+          <t>10:00AM-04:45PM</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>10:00AM-04::45PM</t>
+          <t>10:00AM-04:45PM</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>10:00AM-04::15PM</t>
+          <t>10:00AM-04:15PM</t>
         </is>
       </c>
       <c r="AC169" t="inlineStr"/>
@@ -20715,27 +20715,27 @@
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr">
         <is>
-          <t>09::15AM-04:00PM</t>
+          <t>09:15AM-04:00PM</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>09::15AM-04:00PM</t>
+          <t>09:15AM-04:00PM</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>09::15AM-04:00PM</t>
+          <t>09:15AM-04:00PM</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>09::15AM-04:00PM</t>
+          <t>09:15AM-04:00PM</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>09::15AM-04:00PM</t>
+          <t>09:15AM-04:00PM</t>
         </is>
       </c>
       <c r="AC175" t="inlineStr"/>
@@ -21066,17 +21066,17 @@
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>02::30PM-09:00PM</t>
+          <t>02:30PM-09:00PM</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>02::30PM-04:00PM</t>
+          <t>02:30PM-04:00PM</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>02::30PM-04:00PM</t>
+          <t>02:30PM-04:00PM</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
@@ -21086,7 +21086,7 @@
       </c>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>02::30AM-09:00PM</t>
+          <t>02:30AM-09:00PM</t>
         </is>
       </c>
       <c r="AC178" t="inlineStr">
@@ -21401,7 +21401,7 @@
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>09:00AM-12:00PM, 12::15PM-04:00PM, 04::15PM-05::45PM</t>
+          <t>09:00AM-12:00PM, 12:15PM-04:00PM, 04:15PM-05:45PM</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
@@ -21609,27 +21609,27 @@
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="inlineStr">
         <is>
-          <t>01::30PM-05::30PM</t>
+          <t>01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>01::30PM-05::30PM</t>
+          <t>01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
         <is>
-          <t>01::30PM-05::30PM</t>
+          <t>01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AA183" t="inlineStr">
         <is>
-          <t>01::30PM-05::30PM</t>
+          <t>01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AB183" t="inlineStr">
         <is>
-          <t>01::30PM-05::30PM</t>
+          <t>01:30PM-05:30PM</t>
         </is>
       </c>
       <c r="AC183" t="inlineStr"/>
@@ -22405,19 +22405,19 @@
       <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>10:00AM-10::40AM</t>
+          <t>10:00AM-10:40AM</t>
         </is>
       </c>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>10:00AM-10::40AM</t>
+          <t>10:00AM-10:40AM</t>
         </is>
       </c>
       <c r="AB190" t="inlineStr"/>
       <c r="AC190" t="inlineStr">
         <is>
-          <t>09::20AM-10:00AM</t>
+          <t>09:20AM-10:00AM</t>
         </is>
       </c>
     </row>
@@ -22511,27 +22511,27 @@
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="inlineStr">
         <is>
-          <t>10:00AM-05::15PM</t>
+          <t>10:00AM-05:15PM</t>
         </is>
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>10:00AM-05::15PM</t>
+          <t>10:00AM-05:15PM</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr">
         <is>
-          <t>10:00AM-05::15PM</t>
+          <t>10:00AM-05:15PM</t>
         </is>
       </c>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>10:00AM-05::15PM</t>
+          <t>10:00AM-05:15PM</t>
         </is>
       </c>
       <c r="AB191" t="inlineStr">
         <is>
-          <t>10:00AM-05::15PM</t>
+          <t>10:00AM-05:15PM</t>
         </is>
       </c>
       <c r="AC191" t="inlineStr"/>
@@ -22856,27 +22856,27 @@
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB194" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC194" t="inlineStr"/>
@@ -23635,27 +23635,27 @@
       <c r="W201" t="inlineStr"/>
       <c r="X201" t="inlineStr">
         <is>
-          <t>01:00PM-04::30PM</t>
+          <t>01:00PM-04:30PM</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>01:00PM-04::30PM</t>
+          <t>01:00PM-04:30PM</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
         <is>
-          <t>01:00PM-04::30PM</t>
+          <t>01:00PM-04:30PM</t>
         </is>
       </c>
       <c r="AA201" t="inlineStr">
         <is>
-          <t>01:00PM-04::30PM</t>
+          <t>01:00PM-04:30PM</t>
         </is>
       </c>
       <c r="AB201" t="inlineStr">
         <is>
-          <t>01:00PM-04::30PM</t>
+          <t>01:00PM-04:30PM</t>
         </is>
       </c>
       <c r="AC201" t="inlineStr"/>
@@ -24220,32 +24220,32 @@
       <c r="W206" t="inlineStr"/>
       <c r="X206" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB206" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
-          <t>10:00AM-01::30PM</t>
+          <t>10:00AM-01:30PM</t>
         </is>
       </c>
     </row>
@@ -24335,27 +24335,27 @@
       <c r="W207" t="inlineStr"/>
       <c r="X207" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z207" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA207" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB207" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC207" t="inlineStr"/>
@@ -25039,27 +25039,27 @@
       <c r="W213" t="inlineStr"/>
       <c r="X213" t="inlineStr">
         <is>
-          <t>09::30AM-04:00PM</t>
+          <t>09:30AM-04:00PM</t>
         </is>
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>09::30AM-04:00PM</t>
+          <t>09:30AM-04:00PM</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr">
         <is>
-          <t>09::30AM-04:00PM</t>
+          <t>09:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AA213" t="inlineStr">
         <is>
-          <t>09::30AM-04:00PM</t>
+          <t>09:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AB213" t="inlineStr">
         <is>
-          <t>09::30AM-04:00PM</t>
+          <t>09:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AC213" t="inlineStr"/>
@@ -26195,32 +26195,32 @@
       <c r="W223" t="inlineStr"/>
       <c r="X223" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z223" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA223" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB223" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
-          <t>10::30AM-03:00PM</t>
+          <t>10:30AM-03:00PM</t>
         </is>
       </c>
     </row>
@@ -26974,27 +26974,27 @@
       <c r="W230" t="inlineStr"/>
       <c r="X230" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z230" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA230" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB230" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC230" t="inlineStr"/>
@@ -27088,7 +27088,7 @@
       <c r="Z231" t="inlineStr"/>
       <c r="AA231" t="inlineStr">
         <is>
-          <t>02::30PM-04:00PM</t>
+          <t>02:30PM-04:00PM</t>
         </is>
       </c>
       <c r="AB231" t="inlineStr"/>
@@ -27782,27 +27782,27 @@
       <c r="W237" t="inlineStr"/>
       <c r="X237" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::10PM-04:00PM</t>
+          <t>10:00AM-12:00PM, 01:10PM-04:00PM</t>
         </is>
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::10PM-04:00PM</t>
+          <t>10:00AM-12:00PM, 01:10PM-04:00PM</t>
         </is>
       </c>
       <c r="Z237" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::10PM-04:00PM</t>
+          <t>10:00AM-12:00PM, 01:10PM-04:00PM</t>
         </is>
       </c>
       <c r="AA237" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::10PM-04:00PM</t>
+          <t>10:00AM-12:00PM, 01:10PM-04:00PM</t>
         </is>
       </c>
       <c r="AB237" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::10PM-04:00PM</t>
+          <t>10:00AM-12:00PM, 01:10PM-04:00PM</t>
         </is>
       </c>
       <c r="AC237" t="inlineStr"/>
@@ -28138,12 +28138,12 @@
       <c r="X240" t="inlineStr"/>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z240" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA240" t="inlineStr">
@@ -28153,7 +28153,7 @@
       </c>
       <c r="AB240" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC240" t="inlineStr"/>
@@ -28958,27 +28958,27 @@
       <c r="W247" t="inlineStr"/>
       <c r="X247" t="inlineStr">
         <is>
-          <t>08:00AM-11::45AM</t>
+          <t>08:00AM-11:45AM</t>
         </is>
       </c>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>08:00AM-11::45AM</t>
+          <t>08:00AM-11:45AM</t>
         </is>
       </c>
       <c r="Z247" t="inlineStr">
         <is>
-          <t>08:00AM-11::45AM</t>
+          <t>08:00AM-11:45AM</t>
         </is>
       </c>
       <c r="AA247" t="inlineStr">
         <is>
-          <t>08:00AM-11::45AM</t>
+          <t>08:00AM-11:45AM</t>
         </is>
       </c>
       <c r="AB247" t="inlineStr">
         <is>
-          <t>08:00AM-11::45AM</t>
+          <t>08:00AM-11:45AM</t>
         </is>
       </c>
       <c r="AC247" t="inlineStr"/>
@@ -29077,27 +29077,27 @@
       <c r="W248" t="inlineStr"/>
       <c r="X248" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y248" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z248" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA248" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB248" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC248" t="inlineStr"/>
@@ -29196,27 +29196,27 @@
       <c r="W249" t="inlineStr"/>
       <c r="X249" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y249" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z249" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA249" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB249" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC249" t="inlineStr"/>
@@ -29313,27 +29313,27 @@
       <c r="W250" t="inlineStr"/>
       <c r="X250" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y250" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z250" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA250" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB250" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC250" t="inlineStr">
@@ -29434,32 +29434,32 @@
       <c r="W251" t="inlineStr"/>
       <c r="X251" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y251" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z251" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA251" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB251" t="inlineStr">
         <is>
-          <t>10::30AM-05:00PM</t>
+          <t>10:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
-          <t>10::30AM-02:00PM</t>
+          <t>10:30AM-02:00PM</t>
         </is>
       </c>
     </row>
@@ -29554,27 +29554,27 @@
       <c r="W252" t="inlineStr"/>
       <c r="X252" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z252" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA252" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB252" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC252" t="inlineStr">
@@ -29675,32 +29675,32 @@
       <c r="W253" t="inlineStr"/>
       <c r="X253" t="inlineStr">
         <is>
-          <t>09::15AM-05::30PM</t>
+          <t>09:15AM-05:30PM</t>
         </is>
       </c>
       <c r="Y253" t="inlineStr">
         <is>
-          <t>09::15AM-05::30PM</t>
+          <t>09:15AM-05:30PM</t>
         </is>
       </c>
       <c r="Z253" t="inlineStr">
         <is>
-          <t>09::15AM-05::30PM</t>
+          <t>09:15AM-05:30PM</t>
         </is>
       </c>
       <c r="AA253" t="inlineStr">
         <is>
-          <t>09::15AM-05::30PM</t>
+          <t>09:15AM-05:30PM</t>
         </is>
       </c>
       <c r="AB253" t="inlineStr">
         <is>
-          <t>09::15AM-05::30PM</t>
+          <t>09:15AM-05:30PM</t>
         </is>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
-          <t>10::15AM-04:00PM</t>
+          <t>10:15AM-04:00PM</t>
         </is>
       </c>
     </row>
@@ -30033,27 +30033,27 @@
       <c r="W256" t="inlineStr"/>
       <c r="X256" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y256" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z256" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA256" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB256" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC256" t="inlineStr"/>
@@ -30826,27 +30826,27 @@
       <c r="W263" t="inlineStr"/>
       <c r="X263" t="inlineStr">
         <is>
-          <t>09:00AM-03::50PM</t>
+          <t>09:00AM-03:50PM</t>
         </is>
       </c>
       <c r="Y263" t="inlineStr">
         <is>
-          <t>09:00AM-03::50PM</t>
+          <t>09:00AM-03:50PM</t>
         </is>
       </c>
       <c r="Z263" t="inlineStr">
         <is>
-          <t>09:00AM-03::50PM</t>
+          <t>09:00AM-03:50PM</t>
         </is>
       </c>
       <c r="AA263" t="inlineStr">
         <is>
-          <t>09:00AM-03::50PM</t>
+          <t>09:00AM-03:50PM</t>
         </is>
       </c>
       <c r="AB263" t="inlineStr">
         <is>
-          <t>09:00AM-03::50PM</t>
+          <t>09:00AM-03:50PM</t>
         </is>
       </c>
       <c r="AC263" t="inlineStr"/>
@@ -31286,27 +31286,27 @@
       <c r="W267" t="inlineStr"/>
       <c r="X267" t="inlineStr">
         <is>
-          <t>10:00AM-01:00PM, 02::10PM-03::40PM</t>
+          <t>10:00AM-01:00PM, 02:10PM-03:40PM</t>
         </is>
       </c>
       <c r="Y267" t="inlineStr">
         <is>
-          <t>10:00AM-01:00PM, 02::10PM-03::40PM</t>
+          <t>10:00AM-01:00PM, 02:10PM-03:40PM</t>
         </is>
       </c>
       <c r="Z267" t="inlineStr">
         <is>
-          <t>10:00AM-01:00PM, 02::10PM-03::40PM</t>
+          <t>10:00AM-01:00PM, 02:10PM-03:40PM</t>
         </is>
       </c>
       <c r="AA267" t="inlineStr">
         <is>
-          <t>10:00AM-01:00PM, 02::10PM-03::40PM</t>
+          <t>10:00AM-01:00PM, 02:10PM-03:40PM</t>
         </is>
       </c>
       <c r="AB267" t="inlineStr">
         <is>
-          <t>10:00AM-01:00PM, 02::10PM-03::40PM</t>
+          <t>10:00AM-01:00PM, 02:10PM-03:40PM</t>
         </is>
       </c>
       <c r="AC267" t="inlineStr"/>
@@ -31401,27 +31401,27 @@
       <c r="W268" t="inlineStr"/>
       <c r="X268" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::15PM-03:00PM</t>
+          <t>10:00AM-12:00PM, 01:15PM-03:00PM</t>
         </is>
       </c>
       <c r="Y268" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::15PM-03:00PM</t>
+          <t>10:00AM-12:00PM, 01:15PM-03:00PM</t>
         </is>
       </c>
       <c r="Z268" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::15PM-03:00PM</t>
+          <t>10:00AM-12:00PM, 01:15PM-03:00PM</t>
         </is>
       </c>
       <c r="AA268" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::15PM-03:00PM</t>
+          <t>10:00AM-12:00PM, 01:15PM-03:00PM</t>
         </is>
       </c>
       <c r="AB268" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 01::15PM-03:00PM</t>
+          <t>10:00AM-12:00PM, 01:15PM-03:00PM</t>
         </is>
       </c>
       <c r="AC268" t="inlineStr"/>
@@ -32089,32 +32089,32 @@
       <c r="W274" t="inlineStr"/>
       <c r="X274" t="inlineStr">
         <is>
-          <t>09::45AM-05::45PM</t>
+          <t>09:45AM-05:45PM</t>
         </is>
       </c>
       <c r="Y274" t="inlineStr">
         <is>
-          <t>09::45AM-05::45PM</t>
+          <t>09:45AM-05:45PM</t>
         </is>
       </c>
       <c r="Z274" t="inlineStr">
         <is>
-          <t>09::45AM-05::45PM</t>
+          <t>09:45AM-05:45PM</t>
         </is>
       </c>
       <c r="AA274" t="inlineStr">
         <is>
-          <t>09::45AM-05::45PM</t>
+          <t>09:45AM-05:45PM</t>
         </is>
       </c>
       <c r="AB274" t="inlineStr">
         <is>
-          <t>09::45AM-05::45PM</t>
+          <t>09:45AM-05:45PM</t>
         </is>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
-          <t>10::15AM-01::45PM</t>
+          <t>10:15AM-01:45PM</t>
         </is>
       </c>
     </row>
@@ -33154,27 +33154,27 @@
       <c r="W283" t="inlineStr"/>
       <c r="X283" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y283" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z283" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA283" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB283" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC283" t="inlineStr"/>
@@ -33273,27 +33273,27 @@
       <c r="W284" t="inlineStr"/>
       <c r="X284" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y284" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z284" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA284" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB284" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC284" t="inlineStr"/>
@@ -33622,32 +33622,32 @@
       <c r="W287" t="inlineStr"/>
       <c r="X287" t="inlineStr">
         <is>
-          <t>10::30AM-05::30PM</t>
+          <t>10:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y287" t="inlineStr">
         <is>
-          <t>10::30AM-05::30PM</t>
+          <t>10:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z287" t="inlineStr">
         <is>
-          <t>10::30AM-05::30PM</t>
+          <t>10:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA287" t="inlineStr">
         <is>
-          <t>10::30AM-05::30PM</t>
+          <t>10:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB287" t="inlineStr">
         <is>
-          <t>10::30AM-05::30PM</t>
+          <t>10:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
-          <t>10::30AM-05::30PM</t>
+          <t>10:30AM-05:30PM</t>
         </is>
       </c>
     </row>
@@ -33733,27 +33733,27 @@
       <c r="W288" t="inlineStr"/>
       <c r="X288" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y288" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z288" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA288" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB288" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC288" t="inlineStr"/>
@@ -34772,27 +34772,27 @@
       <c r="W297" t="inlineStr"/>
       <c r="X297" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y297" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z297" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA297" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB297" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC297" t="inlineStr"/>
@@ -35353,27 +35353,27 @@
       <c r="W302" t="inlineStr"/>
       <c r="X302" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Y302" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Z302" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AA302" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AB302" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AC302" t="inlineStr">
@@ -35477,27 +35477,27 @@
       <c r="W303" t="inlineStr"/>
       <c r="X303" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y303" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z303" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA303" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB303" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC303" t="inlineStr">
@@ -36326,27 +36326,27 @@
       </c>
       <c r="X310" t="inlineStr">
         <is>
-          <t>08::45AM-07::30PM</t>
+          <t>08:45AM-07:30PM</t>
         </is>
       </c>
       <c r="Y310" t="inlineStr">
         <is>
-          <t>08::45AM-07::30PM</t>
+          <t>08:45AM-07:30PM</t>
         </is>
       </c>
       <c r="Z310" t="inlineStr">
         <is>
-          <t>08::45AM-07::30PM</t>
+          <t>08:45AM-07:30PM</t>
         </is>
       </c>
       <c r="AA310" t="inlineStr">
         <is>
-          <t>08::45AM-07::30PM</t>
+          <t>08:45AM-07:30PM</t>
         </is>
       </c>
       <c r="AB310" t="inlineStr">
         <is>
-          <t>08::45AM-07::30PM</t>
+          <t>08:45AM-07:30PM</t>
         </is>
       </c>
       <c r="AC310" t="inlineStr">
@@ -36561,27 +36561,27 @@
       <c r="W312" t="inlineStr"/>
       <c r="X312" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Y312" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Z312" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AA312" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AB312" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AC312" t="inlineStr">
@@ -37060,32 +37060,32 @@
       <c r="W316" t="inlineStr"/>
       <c r="X316" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y316" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z316" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA316" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB316" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC316" t="inlineStr">
         <is>
-          <t>11:00AM-04::30PM</t>
+          <t>11:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -38063,7 +38063,7 @@
       </c>
       <c r="AC324" t="inlineStr">
         <is>
-          <t>10::30AM-12::30PM</t>
+          <t>10:30AM-12:30PM</t>
         </is>
       </c>
     </row>
@@ -38509,27 +38509,27 @@
       <c r="W328" t="inlineStr"/>
       <c r="X328" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Y328" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Z328" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AA328" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AB328" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AC328" t="inlineStr">
@@ -38630,32 +38630,32 @@
       <c r="W329" t="inlineStr"/>
       <c r="X329" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y329" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z329" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA329" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB329" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC329" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
     </row>
@@ -38755,32 +38755,32 @@
       <c r="W330" t="inlineStr"/>
       <c r="X330" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y330" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z330" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA330" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB330" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC330" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
     </row>
@@ -38990,32 +38990,32 @@
       <c r="W332" t="inlineStr"/>
       <c r="X332" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y332" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z332" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA332" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB332" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC332" t="inlineStr">
         <is>
-          <t>10:00AM-02::30PM</t>
+          <t>10:00AM-02:30PM</t>
         </is>
       </c>
     </row>
@@ -39230,27 +39230,27 @@
       </c>
       <c r="X334" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Y334" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Z334" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AA334" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AB334" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AC334" t="inlineStr">
@@ -39698,27 +39698,27 @@
       <c r="W338" t="inlineStr"/>
       <c r="X338" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y338" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z338" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA338" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB338" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC338" t="inlineStr"/>
@@ -40076,7 +40076,7 @@
       </c>
       <c r="AC341" t="inlineStr">
         <is>
-          <t>10::30AM-03::30PM</t>
+          <t>10:30AM-03:30PM</t>
         </is>
       </c>
     </row>
@@ -40410,27 +40410,27 @@
       <c r="W344" t="inlineStr"/>
       <c r="X344" t="inlineStr">
         <is>
-          <t>09:00AM-05::45PM</t>
+          <t>09:00AM-05:45PM</t>
         </is>
       </c>
       <c r="Y344" t="inlineStr">
         <is>
-          <t>09:00AM-05::45PM</t>
+          <t>09:00AM-05:45PM</t>
         </is>
       </c>
       <c r="Z344" t="inlineStr">
         <is>
-          <t>09:00AM-05::45PM</t>
+          <t>09:00AM-05:45PM</t>
         </is>
       </c>
       <c r="AA344" t="inlineStr">
         <is>
-          <t>09:00AM-05::45PM</t>
+          <t>09:00AM-05:45PM</t>
         </is>
       </c>
       <c r="AB344" t="inlineStr">
         <is>
-          <t>09:00AM-05::45PM</t>
+          <t>09:00AM-05:45PM</t>
         </is>
       </c>
       <c r="AC344" t="inlineStr">
@@ -40890,27 +40890,27 @@
       <c r="W348" t="inlineStr"/>
       <c r="X348" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y348" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z348" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA348" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB348" t="inlineStr">
         <is>
-          <t>09::30AM-05::30PM</t>
+          <t>09:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC348" t="inlineStr">
@@ -41233,27 +41233,27 @@
       <c r="W351" t="inlineStr"/>
       <c r="X351" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y351" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z351" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA351" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB351" t="inlineStr">
         <is>
-          <t>09:00AM-05::30PM</t>
+          <t>09:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC351" t="inlineStr">
@@ -41354,32 +41354,32 @@
       <c r="W352" t="inlineStr"/>
       <c r="X352" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y352" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z352" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA352" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB352" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC352" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -41588,27 +41588,27 @@
       <c r="W354" t="inlineStr"/>
       <c r="X354" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y354" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z354" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA354" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB354" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC354" t="inlineStr"/>
@@ -41707,27 +41707,27 @@
       <c r="W355" t="inlineStr"/>
       <c r="X355" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y355" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z355" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA355" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB355" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC355" t="inlineStr"/>
@@ -41822,27 +41822,27 @@
       <c r="W356" t="inlineStr"/>
       <c r="X356" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y356" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z356" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA356" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB356" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC356" t="inlineStr"/>
@@ -41941,27 +41941,27 @@
       <c r="W357" t="inlineStr"/>
       <c r="X357" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Y357" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="Z357" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AA357" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AB357" t="inlineStr">
         <is>
-          <t>09::30AM-04::30PM</t>
+          <t>09:30AM-04:30PM</t>
         </is>
       </c>
       <c r="AC357" t="inlineStr"/>
@@ -42873,27 +42873,27 @@
       <c r="W365" t="inlineStr"/>
       <c r="X365" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Y365" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z365" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AA365" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AB365" t="inlineStr">
         <is>
-          <t>08::30AM-05:00PM</t>
+          <t>08:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC365" t="inlineStr"/>
@@ -43094,17 +43094,17 @@
       <c r="X367" t="inlineStr"/>
       <c r="Y367" t="inlineStr">
         <is>
-          <t>10:00AM-04::45PM</t>
+          <t>10:00AM-04:45PM</t>
         </is>
       </c>
       <c r="Z367" t="inlineStr">
         <is>
-          <t>10:00AM-04::45PM</t>
+          <t>10:00AM-04:45PM</t>
         </is>
       </c>
       <c r="AA367" t="inlineStr">
         <is>
-          <t>10:00AM-04::45PM</t>
+          <t>10:00AM-04:45PM</t>
         </is>
       </c>
       <c r="AB367" t="inlineStr"/>
@@ -43789,27 +43789,27 @@
       <c r="W373" t="inlineStr"/>
       <c r="X373" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Y373" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Z373" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AA373" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AB373" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AC373" t="inlineStr">
@@ -43910,27 +43910,27 @@
       <c r="W374" t="inlineStr"/>
       <c r="X374" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Y374" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Z374" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AA374" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AB374" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AC374" t="inlineStr">
@@ -44737,27 +44737,27 @@
       <c r="W381" t="inlineStr"/>
       <c r="X381" t="inlineStr">
         <is>
-          <t>09::15AM-05::45PM</t>
+          <t>09:15AM-05:45PM</t>
         </is>
       </c>
       <c r="Y381" t="inlineStr">
         <is>
-          <t>09::15AM-05::45PM</t>
+          <t>09:15AM-05:45PM</t>
         </is>
       </c>
       <c r="Z381" t="inlineStr">
         <is>
-          <t>09::15AM-05::45PM</t>
+          <t>09:15AM-05:45PM</t>
         </is>
       </c>
       <c r="AA381" t="inlineStr">
         <is>
-          <t>09::15AM-05::45PM</t>
+          <t>09:15AM-05:45PM</t>
         </is>
       </c>
       <c r="AB381" t="inlineStr">
         <is>
-          <t>09::15AM-05::45PM</t>
+          <t>09:15AM-05:45PM</t>
         </is>
       </c>
       <c r="AC381" t="inlineStr"/>
@@ -46724,7 +46724,7 @@
       <c r="V399" t="inlineStr"/>
       <c r="W399" t="inlineStr">
         <is>
-          <t>10::30AM-03::30PM</t>
+          <t>10:30AM-03:30PM</t>
         </is>
       </c>
       <c r="X399" t="inlineStr">
@@ -46754,7 +46754,7 @@
       </c>
       <c r="AC399" t="inlineStr">
         <is>
-          <t>10:00AM-04::30PM</t>
+          <t>10:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -46850,27 +46850,27 @@
       <c r="W400" t="inlineStr"/>
       <c r="X400" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y400" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z400" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA400" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB400" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC400" t="inlineStr">
@@ -47217,27 +47217,27 @@
       <c r="W403" t="inlineStr"/>
       <c r="X403" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Y403" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Z403" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AA403" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AB403" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AC403" t="inlineStr">
@@ -47576,27 +47576,27 @@
       <c r="W406" t="inlineStr"/>
       <c r="X406" t="inlineStr">
         <is>
-          <t>08:00AM-06::30PM</t>
+          <t>08:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y406" t="inlineStr">
         <is>
-          <t>08:00AM-06::30PM</t>
+          <t>08:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z406" t="inlineStr">
         <is>
-          <t>08:00AM-06::30PM</t>
+          <t>08:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA406" t="inlineStr">
         <is>
-          <t>08:00AM-06::30PM</t>
+          <t>08:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB406" t="inlineStr">
         <is>
-          <t>08:00AM-06::30PM</t>
+          <t>08:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC406" t="inlineStr">
@@ -48047,7 +48047,7 @@
       <c r="X410" t="inlineStr"/>
       <c r="Y410" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="Z410" t="inlineStr"/>
@@ -48472,12 +48472,12 @@
       <c r="AA414" t="inlineStr"/>
       <c r="AB414" t="inlineStr">
         <is>
-          <t>09::30AM-05:00PM</t>
+          <t>09:30AM-05:00PM</t>
         </is>
       </c>
       <c r="AC414" t="inlineStr">
         <is>
-          <t>09::30AM-01::30PM</t>
+          <t>09:30AM-01:30PM</t>
         </is>
       </c>
     </row>
@@ -50137,27 +50137,27 @@
       <c r="W429" t="inlineStr"/>
       <c r="X429" t="inlineStr">
         <is>
-          <t>11::30AM-04:00PM</t>
+          <t>11:30AM-04:00PM</t>
         </is>
       </c>
       <c r="Y429" t="inlineStr">
         <is>
-          <t>11::30AM-04:00PM</t>
+          <t>11:30AM-04:00PM</t>
         </is>
       </c>
       <c r="Z429" t="inlineStr">
         <is>
-          <t>11::30AM-04:00PM</t>
+          <t>11:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AA429" t="inlineStr">
         <is>
-          <t>11::30AM-04:00PM</t>
+          <t>11:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AB429" t="inlineStr">
         <is>
-          <t>11::30AM-04:00PM</t>
+          <t>11:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AC429" t="inlineStr"/>
@@ -50488,37 +50488,37 @@
       <c r="V432" t="inlineStr"/>
       <c r="W432" t="inlineStr">
         <is>
-          <t>12::15PM-03::45PM</t>
+          <t>12:15PM-03:45PM</t>
         </is>
       </c>
       <c r="X432" t="inlineStr">
         <is>
-          <t>10:00AM-06::45PM</t>
+          <t>10:00AM-06:45PM</t>
         </is>
       </c>
       <c r="Y432" t="inlineStr">
         <is>
-          <t>10:00AM-06::45PM</t>
+          <t>10:00AM-06:45PM</t>
         </is>
       </c>
       <c r="Z432" t="inlineStr">
         <is>
-          <t>10:00AM-06::45PM</t>
+          <t>10:00AM-06:45PM</t>
         </is>
       </c>
       <c r="AA432" t="inlineStr">
         <is>
-          <t>10:00AM-06::45PM</t>
+          <t>10:00AM-06:45PM</t>
         </is>
       </c>
       <c r="AB432" t="inlineStr">
         <is>
-          <t>10:00AM-06::45PM</t>
+          <t>10:00AM-06:45PM</t>
         </is>
       </c>
       <c r="AC432" t="inlineStr">
         <is>
-          <t>09::15AM-04::45PM</t>
+          <t>09:15AM-04:45PM</t>
         </is>
       </c>
     </row>
@@ -51802,27 +51802,27 @@
       </c>
       <c r="X443" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y443" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z443" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA443" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB443" t="inlineStr">
         <is>
-          <t>10:00AM-06::30PM</t>
+          <t>10:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC443" t="inlineStr">
@@ -51917,27 +51917,27 @@
       <c r="W444" t="inlineStr"/>
       <c r="X444" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Y444" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Z444" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AA444" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AB444" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AC444" t="inlineStr"/>
@@ -52036,27 +52036,27 @@
       <c r="W445" t="inlineStr"/>
       <c r="X445" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Y445" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Z445" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AA445" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AB445" t="inlineStr">
         <is>
-          <t>09::30AM-06:00PM</t>
+          <t>09:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AC445" t="inlineStr"/>
@@ -52151,27 +52151,27 @@
       <c r="W446" t="inlineStr"/>
       <c r="X446" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Y446" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="Z446" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AA446" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AB446" t="inlineStr">
         <is>
-          <t>08::30AM-05::30PM</t>
+          <t>08:30AM-05:30PM</t>
         </is>
       </c>
       <c r="AC446" t="inlineStr"/>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="AC452" t="inlineStr">
         <is>
-          <t>10:00AM-04::15PM</t>
+          <t>10:00AM-04:15PM</t>
         </is>
       </c>
     </row>
@@ -53045,12 +53045,12 @@
       <c r="Y454" t="inlineStr"/>
       <c r="Z454" t="inlineStr">
         <is>
-          <t>11:00AM-06::30PM</t>
+          <t>11:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA454" t="inlineStr">
         <is>
-          <t>11:00AM-06::30PM</t>
+          <t>11:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB454" t="inlineStr"/>
@@ -53153,37 +53153,37 @@
       <c r="V455" t="inlineStr"/>
       <c r="W455" t="inlineStr">
         <is>
-          <t>10::30AM-03:00PM</t>
+          <t>10:30AM-03:00PM</t>
         </is>
       </c>
       <c r="X455" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Y455" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Z455" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AA455" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AB455" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AC455" t="inlineStr">
         <is>
-          <t>10:00AM-03::30PM</t>
+          <t>10:00AM-03:30PM</t>
         </is>
       </c>
     </row>
@@ -53398,27 +53398,27 @@
       <c r="W457" t="inlineStr"/>
       <c r="X457" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Y457" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Z457" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AA457" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AB457" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AC457" t="inlineStr">
@@ -53646,27 +53646,27 @@
       </c>
       <c r="X459" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="Y459" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="Z459" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AA459" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AB459" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AC459" t="inlineStr">
@@ -53771,27 +53771,27 @@
       <c r="W460" t="inlineStr"/>
       <c r="X460" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="Y460" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="Z460" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AA460" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AB460" t="inlineStr">
         <is>
-          <t>08::30AM-04:00PM</t>
+          <t>08:30AM-04:00PM</t>
         </is>
       </c>
       <c r="AC460" t="inlineStr">
@@ -54475,27 +54475,27 @@
       <c r="W466" t="inlineStr"/>
       <c r="X466" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Y466" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Z466" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AA466" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AB466" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AC466" t="inlineStr">
@@ -55169,27 +55169,27 @@
       <c r="W472" t="inlineStr"/>
       <c r="X472" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Y472" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Z472" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AA472" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AB472" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AC472" t="inlineStr">
@@ -55295,7 +55295,7 @@
       <c r="V473" t="inlineStr"/>
       <c r="W473" t="inlineStr">
         <is>
-          <t>11:00AM-12:00PM, 03:00PM-03::30PM</t>
+          <t>11:00AM-12:00PM, 03:00PM-03:30PM</t>
         </is>
       </c>
       <c r="X473" t="inlineStr">
@@ -55305,27 +55305,27 @@
       </c>
       <c r="Y473" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z473" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA473" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB473" t="inlineStr">
         <is>
-          <t>09::30AM-12:00PM, 01::30PM-05:00PM</t>
+          <t>09:30AM-12:00PM, 01:30PM-05:00PM</t>
         </is>
       </c>
       <c r="AC473" t="inlineStr">
         <is>
-          <t>10:00AM-12:00PM, 03:00PM-04::30PM</t>
+          <t>10:00AM-12:00PM, 03:00PM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -55423,27 +55423,27 @@
       </c>
       <c r="X474" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y474" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z474" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA474" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB474" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC474" t="inlineStr">
@@ -55545,37 +55545,37 @@
       <c r="V475" t="inlineStr"/>
       <c r="W475" t="inlineStr">
         <is>
-          <t>12::15PM-03::45PM</t>
+          <t>12:15PM-03:45PM</t>
         </is>
       </c>
       <c r="X475" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="Y475" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="Z475" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AA475" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AB475" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AC475" t="inlineStr">
         <is>
-          <t>09::15AM-04::45PM</t>
+          <t>09:15AM-04:45PM</t>
         </is>
       </c>
     </row>
@@ -55676,37 +55676,37 @@
       <c r="V476" t="inlineStr"/>
       <c r="W476" t="inlineStr">
         <is>
-          <t>10::15AM-02::45PM</t>
+          <t>10:15AM-02:45PM</t>
         </is>
       </c>
       <c r="X476" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="Y476" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="Z476" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AA476" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AB476" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AC476" t="inlineStr">
         <is>
-          <t>09::15AM-04::45PM</t>
+          <t>09:15AM-04:45PM</t>
         </is>
       </c>
     </row>
@@ -55803,37 +55803,37 @@
       <c r="V477" t="inlineStr"/>
       <c r="W477" t="inlineStr">
         <is>
-          <t>12::15PM-03::45PM</t>
+          <t>12:15PM-03:45PM</t>
         </is>
       </c>
       <c r="X477" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="Y477" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="Z477" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AA477" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AB477" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AC477" t="inlineStr">
         <is>
-          <t>09::15AM-04::45PM</t>
+          <t>09:15AM-04:45PM</t>
         </is>
       </c>
     </row>
@@ -55925,32 +55925,32 @@
       <c r="W478" t="inlineStr"/>
       <c r="X478" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="Y478" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="Z478" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AA478" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AB478" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AC478" t="inlineStr">
         <is>
-          <t>09::15AM-04::45PM</t>
+          <t>09:15AM-04:45PM</t>
         </is>
       </c>
     </row>
@@ -56042,32 +56042,32 @@
       <c r="W479" t="inlineStr"/>
       <c r="X479" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="Y479" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="Z479" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AA479" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AB479" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AC479" t="inlineStr">
         <is>
-          <t>09::15AM-04::45PM</t>
+          <t>09:15AM-04:45PM</t>
         </is>
       </c>
     </row>
@@ -56518,32 +56518,32 @@
       <c r="W483" t="inlineStr"/>
       <c r="X483" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="Y483" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="Z483" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AA483" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AB483" t="inlineStr">
         <is>
-          <t>08::45AM-06::15PM</t>
+          <t>08:45AM-06:15PM</t>
         </is>
       </c>
       <c r="AC483" t="inlineStr">
         <is>
-          <t>09::15AM-04::45PM</t>
+          <t>09:15AM-04:45PM</t>
         </is>
       </c>
     </row>
@@ -57189,37 +57189,37 @@
       <c r="V489" t="inlineStr"/>
       <c r="W489" t="inlineStr">
         <is>
-          <t>10::15AM-02::35PM</t>
+          <t>10:15AM-02:35PM</t>
         </is>
       </c>
       <c r="X489" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="Y489" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="Z489" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="AA489" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="AB489" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="AC489" t="inlineStr">
         <is>
-          <t>09::15AM-04::35PM</t>
+          <t>09:15AM-04:35PM</t>
         </is>
       </c>
     </row>
@@ -57921,27 +57921,27 @@
       </c>
       <c r="X495" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y495" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z495" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA495" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB495" t="inlineStr">
         <is>
-          <t>10:00AM-05::30PM</t>
+          <t>10:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC495" t="inlineStr">
@@ -58264,32 +58264,32 @@
       <c r="W498" t="inlineStr"/>
       <c r="X498" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="Y498" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="Z498" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AA498" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AB498" t="inlineStr">
         <is>
-          <t>09::15AM-06::45PM</t>
+          <t>09:15AM-06:45PM</t>
         </is>
       </c>
       <c r="AC498" t="inlineStr">
         <is>
-          <t>09::15AM-04::45PM</t>
+          <t>09:15AM-04:45PM</t>
         </is>
       </c>
     </row>
@@ -59289,27 +59289,27 @@
       <c r="W507" t="inlineStr"/>
       <c r="X507" t="inlineStr">
         <is>
-          <t>08::30AM-02:00PM</t>
+          <t>08:30AM-02:00PM</t>
         </is>
       </c>
       <c r="Y507" t="inlineStr">
         <is>
-          <t>08::30AM-02:00PM</t>
+          <t>08:30AM-02:00PM</t>
         </is>
       </c>
       <c r="Z507" t="inlineStr">
         <is>
-          <t>08::30AM-02:00PM</t>
+          <t>08:30AM-02:00PM</t>
         </is>
       </c>
       <c r="AA507" t="inlineStr">
         <is>
-          <t>08::30AM-01:00PM</t>
+          <t>08:30AM-01:00PM</t>
         </is>
       </c>
       <c r="AB507" t="inlineStr">
         <is>
-          <t>08::30AM-02:00PM</t>
+          <t>08:30AM-02:00PM</t>
         </is>
       </c>
       <c r="AC507" t="inlineStr">
@@ -59406,32 +59406,32 @@
       <c r="W508" t="inlineStr"/>
       <c r="X508" t="inlineStr">
         <is>
-          <t>09::30AM-07:00PM</t>
+          <t>09:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Y508" t="inlineStr">
         <is>
-          <t>09::30AM-07:00PM</t>
+          <t>09:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Z508" t="inlineStr">
         <is>
-          <t>09::30AM-07:00PM</t>
+          <t>09:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AA508" t="inlineStr">
         <is>
-          <t>09::30AM-07:00PM</t>
+          <t>09:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AB508" t="inlineStr">
         <is>
-          <t>09::30AM-07:00PM</t>
+          <t>09:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AC508" t="inlineStr">
         <is>
-          <t>10::30AM-04:00PM</t>
+          <t>10:30AM-04:00PM</t>
         </is>
       </c>
     </row>
@@ -59524,37 +59524,37 @@
       <c r="V509" t="inlineStr"/>
       <c r="W509" t="inlineStr">
         <is>
-          <t>10::15AM-02::35PM</t>
+          <t>10:15AM-02:35PM</t>
         </is>
       </c>
       <c r="X509" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="Y509" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="Z509" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="AA509" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="AB509" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="AC509" t="inlineStr">
         <is>
-          <t>09::15AM-04::35PM</t>
+          <t>09:15AM-04:35PM</t>
         </is>
       </c>
     </row>
@@ -59650,27 +59650,27 @@
       </c>
       <c r="X510" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Y510" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="Z510" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AA510" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AB510" t="inlineStr">
         <is>
-          <t>08::30AM-07:00PM</t>
+          <t>08:30AM-07:00PM</t>
         </is>
       </c>
       <c r="AC510" t="inlineStr">
@@ -59775,32 +59775,32 @@
       <c r="W511" t="inlineStr"/>
       <c r="X511" t="inlineStr">
         <is>
-          <t>08:00AM-05::30PM</t>
+          <t>08:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Y511" t="inlineStr">
         <is>
-          <t>08:00AM-05::30PM</t>
+          <t>08:00AM-05:30PM</t>
         </is>
       </c>
       <c r="Z511" t="inlineStr">
         <is>
-          <t>08:00AM-05::30PM</t>
+          <t>08:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AA511" t="inlineStr">
         <is>
-          <t>08:00AM-05::30PM</t>
+          <t>08:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AB511" t="inlineStr">
         <is>
-          <t>08:00AM-05::30PM</t>
+          <t>08:00AM-05:30PM</t>
         </is>
       </c>
       <c r="AC511" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -59898,27 +59898,27 @@
       </c>
       <c r="X512" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Y512" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="Z512" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AA512" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AB512" t="inlineStr">
         <is>
-          <t>08::30AM-06::30PM</t>
+          <t>08:30AM-06:30PM</t>
         </is>
       </c>
       <c r="AC512" t="inlineStr">
@@ -60254,37 +60254,37 @@
       <c r="V515" t="inlineStr"/>
       <c r="W515" t="inlineStr">
         <is>
-          <t>10::30AM-12:00PM</t>
+          <t>10:30AM-12:00PM</t>
         </is>
       </c>
       <c r="X515" t="inlineStr">
         <is>
-          <t>09::15AM-02::35PM, 03::35PM-05::35PM</t>
+          <t>09:15AM-02:35PM, 03:35PM-05:35PM</t>
         </is>
       </c>
       <c r="Y515" t="inlineStr">
         <is>
-          <t>12::15PM-06::35PM</t>
+          <t>12:15PM-06:35PM</t>
         </is>
       </c>
       <c r="Z515" t="inlineStr">
         <is>
-          <t>09::15AM-02::05PM, 03::35PM-05::55PM</t>
+          <t>09:15AM-02:05PM, 03:35PM-05:55PM</t>
         </is>
       </c>
       <c r="AA515" t="inlineStr">
         <is>
-          <t>09::15AM-06::35PM</t>
+          <t>09:15AM-06:35PM</t>
         </is>
       </c>
       <c r="AB515" t="inlineStr">
         <is>
-          <t>09::15AM-01::35PM</t>
+          <t>09:15AM-01:35PM</t>
         </is>
       </c>
       <c r="AC515" t="inlineStr">
         <is>
-          <t>09::15AM-03::05PM</t>
+          <t>09:15AM-03:05PM</t>
         </is>
       </c>
     </row>
@@ -60611,37 +60611,37 @@
       <c r="V518" t="inlineStr"/>
       <c r="W518" t="inlineStr">
         <is>
-          <t>10:00AM-02::30PM</t>
+          <t>10:00AM-02:30PM</t>
         </is>
       </c>
       <c r="X518" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Y518" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="Z518" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AA518" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AB518" t="inlineStr">
         <is>
-          <t>08::30AM-06:00PM</t>
+          <t>08:30AM-06:00PM</t>
         </is>
       </c>
       <c r="AC518" t="inlineStr">
         <is>
-          <t>09:00AM-04::30PM</t>
+          <t>09:00AM-04:30PM</t>
         </is>
       </c>
     </row>
@@ -60736,27 +60736,27 @@
       <c r="W519" t="inlineStr"/>
       <c r="X519" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y519" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z519" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA519" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB519" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC519" t="inlineStr">
@@ -60858,27 +60858,27 @@
       <c r="W520" t="inlineStr"/>
       <c r="X520" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y520" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z520" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA520" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB520" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC520" t="inlineStr">
@@ -60978,27 +60978,27 @@
       <c r="W521" t="inlineStr"/>
       <c r="X521" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Y521" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="Z521" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AA521" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AB521" t="inlineStr">
         <is>
-          <t>09:00AM-06::30PM</t>
+          <t>09:00AM-06:30PM</t>
         </is>
       </c>
       <c r="AC521" t="inlineStr">
@@ -61095,32 +61095,32 @@
       <c r="W522" t="inlineStr"/>
       <c r="X522" t="inlineStr">
         <is>
-          <t>09::10AM-05::40PM</t>
+          <t>09:10AM-05:40PM</t>
         </is>
       </c>
       <c r="Y522" t="inlineStr">
         <is>
-          <t>09::10AM-05::40PM</t>
+          <t>09:10AM-05:40PM</t>
         </is>
       </c>
       <c r="Z522" t="inlineStr">
         <is>
-          <t>09::10AM-05::40PM</t>
+          <t>09:10AM-05:40PM</t>
         </is>
       </c>
       <c r="AA522" t="inlineStr">
         <is>
-          <t>09::10AM-05::40PM</t>
+          <t>09:10AM-05:40PM</t>
         </is>
       </c>
       <c r="AB522" t="inlineStr">
         <is>
-          <t>09::10AM-05::40PM</t>
+          <t>09:10AM-05:40PM</t>
         </is>
       </c>
       <c r="AC522" t="inlineStr">
         <is>
-          <t>09::10AM-02::40PM</t>
+          <t>09:10AM-02:40PM</t>
         </is>
       </c>
     </row>
@@ -61509,22 +61509,22 @@
       <c r="W526" t="inlineStr"/>
       <c r="X526" t="inlineStr">
         <is>
-          <t>08::15AM-03::45PM</t>
+          <t>08:15AM-03:45PM</t>
         </is>
       </c>
       <c r="Y526" t="inlineStr">
         <is>
-          <t>08::15AM-03::45PM</t>
+          <t>08:15AM-03:45PM</t>
         </is>
       </c>
       <c r="Z526" t="inlineStr">
         <is>
-          <t>08::15AM-03::45PM</t>
+          <t>08:15AM-03:45PM</t>
         </is>
       </c>
       <c r="AA526" t="inlineStr">
         <is>
-          <t>08::15AM-03::45PM</t>
+          <t>08:15AM-03:45PM</t>
         </is>
       </c>
       <c r="AB526" t="inlineStr"/>
@@ -61743,22 +61743,22 @@
       <c r="W528" t="inlineStr"/>
       <c r="X528" t="inlineStr">
         <is>
-          <t>09::30AM-12:00PM, 01:00PM-04:00PM</t>
+          <t>09:30AM-12:00PM, 01:00PM-04:00PM</t>
         </is>
       </c>
       <c r="Y528" t="inlineStr">
         <is>
-          <t>09::30AM-12:00PM, 01:00PM-04:00PM</t>
+          <t>09:30AM-12:00PM, 01:00PM-04:00PM</t>
         </is>
       </c>
       <c r="Z528" t="inlineStr">
         <is>
-          <t>09::30AM-01::30PM</t>
+          <t>09:30AM-01:30PM</t>
         </is>
       </c>
       <c r="AA528" t="inlineStr">
         <is>
-          <t>09::30AM-12:00PM, 01:00PM-04:00PM</t>
+          <t>09:30AM-12:00PM, 01:00PM-04:00PM</t>
         </is>
       </c>
       <c r="AB528" t="inlineStr"/>
@@ -62210,7 +62210,7 @@
       <c r="V532" t="inlineStr"/>
       <c r="W532" t="inlineStr">
         <is>
-          <t>11::30AM-05:00PM</t>
+          <t>11:30AM-05:00PM</t>
         </is>
       </c>
       <c r="X532" t="inlineStr">
@@ -62571,27 +62571,27 @@
       <c r="W535" t="inlineStr"/>
       <c r="X535" t="inlineStr">
         <is>
-          <t>01::30PM-07:00PM</t>
+          <t>01:30PM-07:00PM</t>
         </is>
       </c>
       <c r="Y535" t="inlineStr">
         <is>
-          <t>01::30PM-07:00PM</t>
+          <t>01:30PM-07:00PM</t>
         </is>
       </c>
       <c r="Z535" t="inlineStr">
         <is>
-          <t>01::30PM-07:00PM</t>
+          <t>01:30PM-07:00PM</t>
         </is>
       </c>
       <c r="AA535" t="inlineStr">
         <is>
-          <t>01::30PM-07:00PM</t>
+          <t>01:30PM-07:00PM</t>
         </is>
       </c>
       <c r="AB535" t="inlineStr">
         <is>
-          <t>01::30PM-07:00PM</t>
+          <t>01:30PM-07:00PM</t>
         </is>
       </c>
       <c r="AC535" t="inlineStr">
@@ -62686,27 +62686,27 @@
       <c r="W536" t="inlineStr"/>
       <c r="X536" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="Y536" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="Z536" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="AA536" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="AB536" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="AC536" t="inlineStr"/>
@@ -62801,27 +62801,27 @@
       <c r="W537" t="inlineStr"/>
       <c r="X537" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="Y537" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="Z537" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="AA537" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="AB537" t="inlineStr">
         <is>
-          <t>01::30PM-06::30PM</t>
+          <t>01:30PM-06:30PM</t>
         </is>
       </c>
       <c r="AC537" t="inlineStr"/>
